--- a/System development files/makeOrderOperationContract.xlsx
+++ b/System development files/makeOrderOperationContract.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Operation:</t>
   </si>
@@ -34,21 +34,6 @@
   </si>
   <si>
     <t>Make order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table is created </t>
-  </si>
-  <si>
-    <t>getFreeTable</t>
-  </si>
-  <si>
-    <t>findReservation(telephoneNumber:int)</t>
-  </si>
-  <si>
-    <t>Reservetaion object is found and returned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tables objects which is free returned </t>
   </si>
   <si>
     <t>makeOrder(table:Table, waiter:Stuff)</t>
@@ -148,10 +133,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -162,6 +146,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -436,7 +426,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -446,108 +436,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -559,41 +519,41 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>11</v>
+      <c r="B21" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -605,41 +565,41 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>15</v>
+      <c r="B30" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" spans="1:2" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,45 +611,41 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>19</v>
+      <c r="B39" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="6">
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B24:B25"/>
   </mergeCells>
